--- a/Code/Results/Cases/Case_1_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007368417946765</v>
+        <v>1.037091173169014</v>
       </c>
       <c r="D2">
-        <v>1.036198086112606</v>
+        <v>1.040282722872028</v>
       </c>
       <c r="E2">
-        <v>1.021115036852179</v>
+        <v>1.04533018781891</v>
       </c>
       <c r="F2">
-        <v>1.028196809683684</v>
+        <v>1.054812182243928</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048869339999712</v>
+        <v>1.039464879571445</v>
       </c>
       <c r="J2">
-        <v>1.029330952499184</v>
+        <v>1.04219593268829</v>
       </c>
       <c r="K2">
-        <v>1.047175146883173</v>
+        <v>1.043065512194089</v>
       </c>
       <c r="L2">
-        <v>1.032287839149486</v>
+        <v>1.048098730908623</v>
       </c>
       <c r="M2">
-        <v>1.039276812341298</v>
+        <v>1.057554362391574</v>
       </c>
       <c r="N2">
-        <v>1.030792720517647</v>
+        <v>1.043675970454252</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011671836117003</v>
+        <v>1.038009959035218</v>
       </c>
       <c r="D3">
-        <v>1.038694377725939</v>
+        <v>1.040814915377988</v>
       </c>
       <c r="E3">
-        <v>1.024734987035983</v>
+        <v>1.046155947165207</v>
       </c>
       <c r="F3">
-        <v>1.032242144738062</v>
+        <v>1.055741319233102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049961000477688</v>
+        <v>1.039647222211805</v>
       </c>
       <c r="J3">
-        <v>1.031849294408157</v>
+        <v>1.042759108239194</v>
       </c>
       <c r="K3">
-        <v>1.048854984696117</v>
+        <v>1.043408828738656</v>
       </c>
       <c r="L3">
-        <v>1.035060866550281</v>
+        <v>1.048735871530986</v>
       </c>
       <c r="M3">
-        <v>1.042478454925026</v>
+        <v>1.058296520902494</v>
       </c>
       <c r="N3">
-        <v>1.033314638760985</v>
+        <v>1.044239945779036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014402912708741</v>
+        <v>1.038605063990815</v>
       </c>
       <c r="D4">
-        <v>1.040281698131656</v>
+        <v>1.041159535521071</v>
       </c>
       <c r="E4">
-        <v>1.027038184717501</v>
+        <v>1.046691178926865</v>
       </c>
       <c r="F4">
-        <v>1.034815894125582</v>
+        <v>1.056343594624388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050645536227726</v>
+        <v>1.03976425086455</v>
       </c>
       <c r="J4">
-        <v>1.033445230799602</v>
+        <v>1.043123477507471</v>
       </c>
       <c r="K4">
-        <v>1.049917101692172</v>
+        <v>1.043630521926876</v>
       </c>
       <c r="L4">
-        <v>1.036820877361083</v>
+        <v>1.049148404030571</v>
       </c>
       <c r="M4">
-        <v>1.044511524304864</v>
+        <v>1.058777178172012</v>
       </c>
       <c r="N4">
-        <v>1.034912841565163</v>
+        <v>1.044604832493466</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01553867644789</v>
+        <v>1.038855385940638</v>
       </c>
       <c r="D5">
-        <v>1.040942474578032</v>
+        <v>1.04130447331623</v>
       </c>
       <c r="E5">
-        <v>1.027997378049052</v>
+        <v>1.046916406758824</v>
       </c>
       <c r="F5">
-        <v>1.035887745330384</v>
+        <v>1.056597043780585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050928187406733</v>
+        <v>1.039813219393678</v>
       </c>
       <c r="J5">
-        <v>1.034108349997807</v>
+        <v>1.043276646987781</v>
       </c>
       <c r="K5">
-        <v>1.050357791104507</v>
+        <v>1.043723611451536</v>
       </c>
       <c r="L5">
-        <v>1.037552813071923</v>
+        <v>1.049321893712781</v>
       </c>
       <c r="M5">
-        <v>1.045357263614296</v>
+        <v>1.058979348333533</v>
       </c>
       <c r="N5">
-        <v>1.035576902468689</v>
+        <v>1.044758219492007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015728662361233</v>
+        <v>1.038897424262311</v>
       </c>
       <c r="D6">
-        <v>1.041053043208107</v>
+        <v>1.041328812445678</v>
       </c>
       <c r="E6">
-        <v>1.028157907440665</v>
+        <v>1.046954236148581</v>
       </c>
       <c r="F6">
-        <v>1.036067128245404</v>
+        <v>1.056639613774929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050975347951927</v>
+        <v>1.039821427899717</v>
       </c>
       <c r="J6">
-        <v>1.034219239029455</v>
+        <v>1.043302364120199</v>
       </c>
       <c r="K6">
-        <v>1.050431446761778</v>
+        <v>1.043739235089089</v>
       </c>
       <c r="L6">
-        <v>1.037675247664282</v>
+        <v>1.049351026937047</v>
       </c>
       <c r="M6">
-        <v>1.045498749266012</v>
+        <v>1.059013299526088</v>
       </c>
       <c r="N6">
-        <v>1.035687948975481</v>
+        <v>1.044783973145704</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014418136929033</v>
+        <v>1.038608408257025</v>
       </c>
       <c r="D7">
-        <v>1.040290552924502</v>
+        <v>1.041161471955514</v>
       </c>
       <c r="E7">
-        <v>1.027051036757403</v>
+        <v>1.046694187583777</v>
       </c>
       <c r="F7">
-        <v>1.034830255701305</v>
+        <v>1.056346980233916</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050649333043522</v>
+        <v>1.039764906090261</v>
       </c>
       <c r="J7">
-        <v>1.033454121829299</v>
+        <v>1.043125524211542</v>
       </c>
       <c r="K7">
-        <v>1.04992301293044</v>
+        <v>1.043631766228574</v>
       </c>
       <c r="L7">
-        <v>1.036830688533633</v>
+        <v>1.049150721969939</v>
       </c>
       <c r="M7">
-        <v>1.044522859971711</v>
+        <v>1.058779879181121</v>
       </c>
       <c r="N7">
-        <v>1.034921745221141</v>
+        <v>1.044606882104093</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00883412748576</v>
+        <v>1.037401558464186</v>
       </c>
       <c r="D8">
-        <v>1.037047603213474</v>
+        <v>1.040462525732061</v>
       </c>
       <c r="E8">
-        <v>1.022346708910632</v>
+        <v>1.045609067671746</v>
       </c>
       <c r="F8">
-        <v>1.029573242567051</v>
+        <v>1.05512596767479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049242856719244</v>
+        <v>1.039526701328732</v>
       </c>
       <c r="J8">
-        <v>1.030189137558282</v>
+        <v>1.042386268754705</v>
       </c>
       <c r="K8">
-        <v>1.047748078233578</v>
+        <v>1.043181631220193</v>
       </c>
       <c r="L8">
-        <v>1.033232254250501</v>
+        <v>1.048314001023999</v>
       </c>
       <c r="M8">
-        <v>1.040366988804313</v>
+        <v>1.057805088259098</v>
       </c>
       <c r="N8">
-        <v>1.031652124297961</v>
+        <v>1.043866576819712</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9985639686491279</v>
+        <v>1.035279499406879</v>
       </c>
       <c r="D9">
-        <v>1.031111647444571</v>
+        <v>1.039232933377744</v>
       </c>
       <c r="E9">
-        <v>1.013742950153705</v>
+        <v>1.043703986170031</v>
       </c>
       <c r="F9">
-        <v>1.01995753335089</v>
+        <v>1.052982588009006</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046592386018449</v>
+        <v>1.039099637446509</v>
       </c>
       <c r="J9">
-        <v>1.024167538996592</v>
+        <v>1.041083324502816</v>
       </c>
       <c r="K9">
-        <v>1.043719349836381</v>
+        <v>1.042385000853009</v>
       </c>
       <c r="L9">
-        <v>1.026616924274116</v>
+        <v>1.046841635677187</v>
       </c>
       <c r="M9">
-        <v>1.032734904266929</v>
+        <v>1.056090743756493</v>
       </c>
       <c r="N9">
-        <v>1.025621974375626</v>
+        <v>1.042561782237536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9913974179387537</v>
+        <v>1.033867932828966</v>
       </c>
       <c r="D10">
-        <v>1.02699452092134</v>
+        <v>1.038414684229449</v>
       </c>
       <c r="E10">
-        <v>1.007774825090282</v>
+        <v>1.042438754081929</v>
       </c>
       <c r="F10">
-        <v>1.013286169761178</v>
+        <v>1.051559275235218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044702598585289</v>
+        <v>1.038810049107511</v>
       </c>
       <c r="J10">
-        <v>1.019956554623261</v>
+        <v>1.040214569169955</v>
       </c>
       <c r="K10">
-        <v>1.040892906035046</v>
+        <v>1.041851677548218</v>
       </c>
       <c r="L10">
-        <v>1.022005107384638</v>
+        <v>1.045861504389048</v>
       </c>
       <c r="M10">
-        <v>1.027419611522431</v>
+        <v>1.054950188164211</v>
       </c>
       <c r="N10">
-        <v>1.021405009921477</v>
+        <v>1.041691793172456</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9882110559638656</v>
+        <v>1.033257468159535</v>
       </c>
       <c r="D11">
-        <v>1.025171247966159</v>
+        <v>1.038060746854566</v>
       </c>
       <c r="E11">
-        <v>1.005130413131506</v>
+        <v>1.041892057267286</v>
       </c>
       <c r="F11">
-        <v>1.01032973786012</v>
+        <v>1.050944314571989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043853461859719</v>
+        <v>1.038683505350477</v>
       </c>
       <c r="J11">
-        <v>1.01808262781859</v>
+        <v>1.039838371946892</v>
       </c>
       <c r="K11">
-        <v>1.039633586736042</v>
+        <v>1.041620227652564</v>
       </c>
       <c r="L11">
-        <v>1.019956221620537</v>
+        <v>1.045437454546074</v>
       </c>
       <c r="M11">
-        <v>1.025059444684997</v>
+        <v>1.054456887055004</v>
       </c>
       <c r="N11">
-        <v>1.019528421925802</v>
+        <v>1.041315061706185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9870143288814095</v>
+        <v>1.033030828667016</v>
       </c>
       <c r="D12">
-        <v>1.024487677371389</v>
+        <v>1.037929336172619</v>
       </c>
       <c r="E12">
-        <v>1.004138659043277</v>
+        <v>1.041689165072195</v>
       </c>
       <c r="F12">
-        <v>1.00922089069096</v>
+        <v>1.050716094160791</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043533263876851</v>
+        <v>1.038636329238666</v>
       </c>
       <c r="J12">
-        <v>1.017378617949902</v>
+        <v>1.039698633527344</v>
       </c>
       <c r="K12">
-        <v>1.039160303370695</v>
+        <v>1.041534180363718</v>
       </c>
       <c r="L12">
-        <v>1.019186996103031</v>
+        <v>1.045279997847269</v>
       </c>
       <c r="M12">
-        <v>1.024173539795871</v>
+        <v>1.054273739584705</v>
       </c>
       <c r="N12">
-        <v>1.01882341228235</v>
+        <v>1.041175124842054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9872716381538003</v>
+        <v>1.033079438418324</v>
       </c>
       <c r="D13">
-        <v>1.024634595794943</v>
+        <v>1.03795752158214</v>
       </c>
       <c r="E13">
-        <v>1.004351831363002</v>
+        <v>1.041732678177808</v>
       </c>
       <c r="F13">
-        <v>1.00945923505992</v>
+        <v>1.050765038986063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043602166847518</v>
+        <v>1.038646456453206</v>
       </c>
       <c r="J13">
-        <v>1.017529996191477</v>
+        <v>1.039728607967273</v>
       </c>
       <c r="K13">
-        <v>1.03926207705503</v>
+        <v>1.041552641240836</v>
       </c>
       <c r="L13">
-        <v>1.019352373949971</v>
+        <v>1.04531377036766</v>
       </c>
       <c r="M13">
-        <v>1.024363994431486</v>
+        <v>1.05431302140174</v>
       </c>
       <c r="N13">
-        <v>1.018975005498391</v>
+        <v>1.041205141849124</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9881124068381091</v>
+        <v>1.033238731730759</v>
       </c>
       <c r="D14">
-        <v>1.025114874269838</v>
+        <v>1.038049883224647</v>
       </c>
       <c r="E14">
-        <v>1.005048631031544</v>
+        <v>1.041875282549438</v>
       </c>
       <c r="F14">
-        <v>1.010238301584831</v>
+        <v>1.050925445644055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043827092865355</v>
+        <v>1.03867960926584</v>
       </c>
       <c r="J14">
-        <v>1.018024598464336</v>
+        <v>1.039826821160689</v>
       </c>
       <c r="K14">
-        <v>1.039594578652311</v>
+        <v>1.041613116510087</v>
       </c>
       <c r="L14">
-        <v>1.019892806283089</v>
+        <v>1.045424438011778</v>
       </c>
       <c r="M14">
-        <v>1.024986406451071</v>
+        <v>1.054441746255103</v>
       </c>
       <c r="N14">
-        <v>1.019470310163209</v>
+        <v>1.041303494516541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9886286661533613</v>
+        <v>1.033336892773559</v>
       </c>
       <c r="D15">
-        <v>1.02540994414303</v>
+        <v>1.038106797944435</v>
       </c>
       <c r="E15">
-        <v>1.005476678944979</v>
+        <v>1.041963169089334</v>
       </c>
       <c r="F15">
-        <v>1.010716876424095</v>
+        <v>1.05102430447421</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043965037532866</v>
+        <v>1.038700013019357</v>
       </c>
       <c r="J15">
-        <v>1.018328274740204</v>
+        <v>1.03988733331424</v>
       </c>
       <c r="K15">
-        <v>1.039798707041753</v>
+        <v>1.041650367220463</v>
       </c>
       <c r="L15">
-        <v>1.020224689180894</v>
+        <v>1.04549263122983</v>
       </c>
       <c r="M15">
-        <v>1.025368658193305</v>
+        <v>1.054521069391424</v>
       </c>
       <c r="N15">
-        <v>1.019774417694221</v>
+        <v>1.04136409260429</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9916070771484914</v>
+        <v>1.033908463320102</v>
       </c>
       <c r="D16">
-        <v>1.027114651732683</v>
+        <v>1.038438181838373</v>
       </c>
       <c r="E16">
-        <v>1.007949019484435</v>
+        <v>1.042475061055411</v>
       </c>
       <c r="F16">
-        <v>1.01348090804265</v>
+        <v>1.05160011658154</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044758289964509</v>
+        <v>1.038818423225254</v>
       </c>
       <c r="J16">
-        <v>1.020079826182914</v>
+        <v>1.040239535799697</v>
       </c>
       <c r="K16">
-        <v>1.040975720046406</v>
+        <v>1.041867027320624</v>
       </c>
       <c r="L16">
-        <v>1.022139959435759</v>
+        <v>1.045889654729222</v>
       </c>
       <c r="M16">
-        <v>1.027574977228313</v>
+        <v>1.054982938994507</v>
       </c>
       <c r="N16">
-        <v>1.021528456540885</v>
+        <v>1.041716795257675</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9934526213673676</v>
+        <v>1.034267196819336</v>
       </c>
       <c r="D17">
-        <v>1.028172955923609</v>
+        <v>1.038646150537748</v>
       </c>
       <c r="E17">
-        <v>1.009483426354071</v>
+        <v>1.042796468199007</v>
       </c>
       <c r="F17">
-        <v>1.015196228120779</v>
+        <v>1.05196166901034</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045247510428473</v>
+        <v>1.038892391373295</v>
       </c>
       <c r="J17">
-        <v>1.021164751808685</v>
+        <v>1.040460458383601</v>
       </c>
       <c r="K17">
-        <v>1.041704407508343</v>
+        <v>1.042002794833926</v>
       </c>
       <c r="L17">
-        <v>1.02332719513358</v>
+        <v>1.04613879255431</v>
       </c>
       <c r="M17">
-        <v>1.028942957308156</v>
+        <v>1.055272810339957</v>
       </c>
       <c r="N17">
-        <v>1.022614922885487</v>
+        <v>1.041938031576988</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9945211162547837</v>
+        <v>1.034476512574382</v>
       </c>
       <c r="D18">
-        <v>1.028786352988567</v>
+        <v>1.038767490728736</v>
       </c>
       <c r="E18">
-        <v>1.010372646601237</v>
+        <v>1.042984051083064</v>
       </c>
       <c r="F18">
-        <v>1.016190251774733</v>
+        <v>1.05217268591544</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04552989931027</v>
+        <v>1.038935424730568</v>
       </c>
       <c r="J18">
-        <v>1.021792719189244</v>
+        <v>1.040589316747336</v>
       </c>
       <c r="K18">
-        <v>1.042126031553828</v>
+        <v>1.042081935724272</v>
       </c>
       <c r="L18">
-        <v>1.024014704857652</v>
+        <v>1.046284144457806</v>
       </c>
       <c r="M18">
-        <v>1.029735252254638</v>
+        <v>1.055441942007582</v>
       </c>
       <c r="N18">
-        <v>1.023243782051755</v>
+        <v>1.042067072934381</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9948841115292043</v>
+        <v>1.034547896112874</v>
       </c>
       <c r="D19">
-        <v>1.028994852031273</v>
+        <v>1.038808870574786</v>
       </c>
       <c r="E19">
-        <v>1.010674882005715</v>
+        <v>1.043048030871202</v>
       </c>
       <c r="F19">
-        <v>1.01652810221571</v>
+        <v>1.052244659143132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045625688272938</v>
+        <v>1.038950079143609</v>
       </c>
       <c r="J19">
-        <v>1.02200602741269</v>
+        <v>1.04063325374118</v>
       </c>
       <c r="K19">
-        <v>1.042269222150729</v>
+        <v>1.04210891220357</v>
       </c>
       <c r="L19">
-        <v>1.024248293400182</v>
+        <v>1.046333711435803</v>
       </c>
       <c r="M19">
-        <v>1.030004462878492</v>
+        <v>1.055499620758519</v>
       </c>
       <c r="N19">
-        <v>1.023457393197346</v>
+        <v>1.042111072323795</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9932554420366629</v>
+        <v>1.034228700594938</v>
       </c>
       <c r="D20">
-        <v>1.0280598143274</v>
+        <v>1.038623833772311</v>
       </c>
       <c r="E20">
-        <v>1.009319399421424</v>
+        <v>1.042761972706749</v>
       </c>
       <c r="F20">
-        <v>1.015012865872624</v>
+        <v>1.05192286445132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045195329500412</v>
+        <v>1.038884466768751</v>
       </c>
       <c r="J20">
-        <v>1.021048853861663</v>
+        <v>1.040436755684743</v>
       </c>
       <c r="K20">
-        <v>1.041626579981501</v>
+        <v>1.041988233427759</v>
       </c>
       <c r="L20">
-        <v>1.023200334211405</v>
+        <v>1.04611205889552</v>
       </c>
       <c r="M20">
-        <v>1.028796770789823</v>
+        <v>1.05524170422901</v>
       </c>
       <c r="N20">
-        <v>1.022498860350087</v>
+        <v>1.041914295217579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9878651905951064</v>
+        <v>1.03319182065702</v>
       </c>
       <c r="D21">
-        <v>1.024973620824034</v>
+        <v>1.038022683423178</v>
       </c>
       <c r="E21">
-        <v>1.004843707041829</v>
+        <v>1.041833284263818</v>
       </c>
       <c r="F21">
-        <v>1.010009185597059</v>
+        <v>1.050878204254984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043760991315621</v>
+        <v>1.038669851335025</v>
       </c>
       <c r="J21">
-        <v>1.017879172861741</v>
+        <v>1.039797899870478</v>
       </c>
       <c r="K21">
-        <v>1.039496819075871</v>
+        <v>1.041595310152221</v>
       </c>
       <c r="L21">
-        <v>1.019733891318965</v>
+        <v>1.045391847640581</v>
       </c>
       <c r="M21">
-        <v>1.024803380101087</v>
+        <v>1.054403837594843</v>
       </c>
       <c r="N21">
-        <v>1.019324678039578</v>
+        <v>1.04127453215478</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9843995603994349</v>
+        <v>1.032540554766938</v>
       </c>
       <c r="D22">
-        <v>1.022996481690848</v>
+        <v>1.037645049451531</v>
       </c>
       <c r="E22">
-        <v>1.001974437395973</v>
+        <v>1.041250396213603</v>
       </c>
       <c r="F22">
-        <v>1.006800999246134</v>
+        <v>1.050222562283568</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042831363012199</v>
+        <v>1.038533918554399</v>
       </c>
       <c r="J22">
-        <v>1.015840078522643</v>
+        <v>1.039396214693293</v>
       </c>
       <c r="K22">
-        <v>1.03812573663137</v>
+        <v>1.041347821744816</v>
       </c>
       <c r="L22">
-        <v>1.017506881507964</v>
+        <v>1.044939336955539</v>
       </c>
       <c r="M22">
-        <v>1.022238920343812</v>
+        <v>1.053877538865288</v>
       </c>
       <c r="N22">
-        <v>1.017282687952631</v>
+        <v>1.040872276538569</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.986244249906809</v>
+        <v>1.032885740035506</v>
       </c>
       <c r="D23">
-        <v>1.024048164516538</v>
+        <v>1.037845208175487</v>
       </c>
       <c r="E23">
-        <v>1.003500887882952</v>
+        <v>1.041559299459742</v>
       </c>
       <c r="F23">
-        <v>1.008507797895078</v>
+        <v>1.050570018374571</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043326866863183</v>
+        <v>1.038606073237308</v>
       </c>
       <c r="J23">
-        <v>1.016925544492773</v>
+        <v>1.039609156313977</v>
       </c>
       <c r="K23">
-        <v>1.038855674789332</v>
+        <v>1.041479061510695</v>
       </c>
       <c r="L23">
-        <v>1.018692097423413</v>
+        <v>1.045179191202771</v>
       </c>
       <c r="M23">
-        <v>1.023603625275839</v>
+        <v>1.054156491815581</v>
       </c>
       <c r="N23">
-        <v>1.018369695408943</v>
+        <v>1.041085520560779</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9933445635000554</v>
+        <v>1.034246095157549</v>
       </c>
       <c r="D24">
-        <v>1.028110950161158</v>
+        <v>1.038633917648343</v>
       </c>
       <c r="E24">
-        <v>1.009393533939964</v>
+        <v>1.042777559390406</v>
       </c>
       <c r="F24">
-        <v>1.015095739408803</v>
+        <v>1.051940398161287</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045218916967549</v>
+        <v>1.038888047899519</v>
       </c>
       <c r="J24">
-        <v>1.021101238121599</v>
+        <v>1.040447465920503</v>
       </c>
       <c r="K24">
-        <v>1.041661757406003</v>
+        <v>1.041994813255075</v>
       </c>
       <c r="L24">
-        <v>1.02325767257887</v>
+        <v>1.046124138580186</v>
       </c>
       <c r="M24">
-        <v>1.028862843536031</v>
+        <v>1.05525575957299</v>
       </c>
       <c r="N24">
-        <v>1.02255131900168</v>
+        <v>1.041925020663102</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001273072112579</v>
+        <v>1.035827554373592</v>
       </c>
       <c r="D25">
-        <v>1.032673566873853</v>
+        <v>1.039550559618257</v>
       </c>
       <c r="E25">
-        <v>1.016006549426104</v>
+        <v>1.044195652042526</v>
       </c>
       <c r="F25">
-        <v>1.022487555361169</v>
+        <v>1.053535721608852</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047298694369207</v>
+        <v>1.039210906618937</v>
       </c>
       <c r="J25">
-        <v>1.02575766812871</v>
+        <v>1.041420193662137</v>
       </c>
       <c r="K25">
-        <v>1.044784990327005</v>
+        <v>1.042591348422058</v>
       </c>
       <c r="L25">
-        <v>1.028361363907023</v>
+        <v>1.047222027848594</v>
       </c>
       <c r="M25">
-        <v>1.034746529886782</v>
+        <v>1.056533536237217</v>
       </c>
       <c r="N25">
-        <v>1.027214361673502</v>
+        <v>1.042899129789703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037091173169014</v>
+        <v>1.007368417946765</v>
       </c>
       <c r="D2">
-        <v>1.040282722872028</v>
+        <v>1.036198086112606</v>
       </c>
       <c r="E2">
-        <v>1.04533018781891</v>
+        <v>1.021115036852179</v>
       </c>
       <c r="F2">
-        <v>1.054812182243928</v>
+        <v>1.028196809683685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039464879571445</v>
+        <v>1.048869339999712</v>
       </c>
       <c r="J2">
-        <v>1.04219593268829</v>
+        <v>1.029330952499184</v>
       </c>
       <c r="K2">
-        <v>1.043065512194089</v>
+        <v>1.047175146883173</v>
       </c>
       <c r="L2">
-        <v>1.048098730908623</v>
+        <v>1.032287839149487</v>
       </c>
       <c r="M2">
-        <v>1.057554362391574</v>
+        <v>1.039276812341298</v>
       </c>
       <c r="N2">
-        <v>1.043675970454252</v>
+        <v>1.030792720517647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038009959035218</v>
+        <v>1.011671836117003</v>
       </c>
       <c r="D3">
-        <v>1.040814915377988</v>
+        <v>1.03869437772594</v>
       </c>
       <c r="E3">
-        <v>1.046155947165207</v>
+        <v>1.024734987035983</v>
       </c>
       <c r="F3">
-        <v>1.055741319233102</v>
+        <v>1.032242144738062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039647222211805</v>
+        <v>1.049961000477688</v>
       </c>
       <c r="J3">
-        <v>1.042759108239194</v>
+        <v>1.031849294408157</v>
       </c>
       <c r="K3">
-        <v>1.043408828738656</v>
+        <v>1.048854984696118</v>
       </c>
       <c r="L3">
-        <v>1.048735871530986</v>
+        <v>1.035060866550281</v>
       </c>
       <c r="M3">
-        <v>1.058296520902494</v>
+        <v>1.042478454925026</v>
       </c>
       <c r="N3">
-        <v>1.044239945779036</v>
+        <v>1.033314638760985</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038605063990815</v>
+        <v>1.01440291270874</v>
       </c>
       <c r="D4">
-        <v>1.041159535521071</v>
+        <v>1.040281698131656</v>
       </c>
       <c r="E4">
-        <v>1.046691178926865</v>
+        <v>1.027038184717499</v>
       </c>
       <c r="F4">
-        <v>1.056343594624388</v>
+        <v>1.03481589412558</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03976425086455</v>
+        <v>1.050645536227726</v>
       </c>
       <c r="J4">
-        <v>1.043123477507471</v>
+        <v>1.033445230799601</v>
       </c>
       <c r="K4">
-        <v>1.043630521926876</v>
+        <v>1.049917101692171</v>
       </c>
       <c r="L4">
-        <v>1.049148404030571</v>
+        <v>1.036820877361082</v>
       </c>
       <c r="M4">
-        <v>1.058777178172012</v>
+        <v>1.044511524304863</v>
       </c>
       <c r="N4">
-        <v>1.044604832493466</v>
+        <v>1.034912841565162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038855385940638</v>
+        <v>1.015538676447889</v>
       </c>
       <c r="D5">
-        <v>1.04130447331623</v>
+        <v>1.040942474578032</v>
       </c>
       <c r="E5">
-        <v>1.046916406758824</v>
+        <v>1.027997378049052</v>
       </c>
       <c r="F5">
-        <v>1.056597043780585</v>
+        <v>1.035887745330384</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039813219393678</v>
+        <v>1.050928187406733</v>
       </c>
       <c r="J5">
-        <v>1.043276646987781</v>
+        <v>1.034108349997807</v>
       </c>
       <c r="K5">
-        <v>1.043723611451536</v>
+        <v>1.050357791104507</v>
       </c>
       <c r="L5">
-        <v>1.049321893712781</v>
+        <v>1.037552813071923</v>
       </c>
       <c r="M5">
-        <v>1.058979348333533</v>
+        <v>1.045357263614296</v>
       </c>
       <c r="N5">
-        <v>1.044758219492007</v>
+        <v>1.035576902468689</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038897424262311</v>
+        <v>1.015728662361234</v>
       </c>
       <c r="D6">
-        <v>1.041328812445678</v>
+        <v>1.041053043208106</v>
       </c>
       <c r="E6">
-        <v>1.046954236148581</v>
+        <v>1.028157907440666</v>
       </c>
       <c r="F6">
-        <v>1.056639613774929</v>
+        <v>1.036067128245404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039821427899717</v>
+        <v>1.050975347951927</v>
       </c>
       <c r="J6">
-        <v>1.043302364120199</v>
+        <v>1.034219239029455</v>
       </c>
       <c r="K6">
-        <v>1.043739235089089</v>
+        <v>1.050431446761778</v>
       </c>
       <c r="L6">
-        <v>1.049351026937047</v>
+        <v>1.037675247664283</v>
       </c>
       <c r="M6">
-        <v>1.059013299526088</v>
+        <v>1.045498749266012</v>
       </c>
       <c r="N6">
-        <v>1.044783973145704</v>
+        <v>1.035687948975482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038608408257025</v>
+        <v>1.014418136929033</v>
       </c>
       <c r="D7">
-        <v>1.041161471955514</v>
+        <v>1.040290552924502</v>
       </c>
       <c r="E7">
-        <v>1.046694187583777</v>
+        <v>1.027051036757403</v>
       </c>
       <c r="F7">
-        <v>1.056346980233916</v>
+        <v>1.034830255701305</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039764906090261</v>
+        <v>1.050649333043522</v>
       </c>
       <c r="J7">
-        <v>1.043125524211542</v>
+        <v>1.033454121829299</v>
       </c>
       <c r="K7">
-        <v>1.043631766228574</v>
+        <v>1.04992301293044</v>
       </c>
       <c r="L7">
-        <v>1.049150721969939</v>
+        <v>1.036830688533633</v>
       </c>
       <c r="M7">
-        <v>1.058779879181121</v>
+        <v>1.044522859971712</v>
       </c>
       <c r="N7">
-        <v>1.044606882104093</v>
+        <v>1.034921745221141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037401558464186</v>
+        <v>1.008834127485759</v>
       </c>
       <c r="D8">
-        <v>1.040462525732061</v>
+        <v>1.037047603213474</v>
       </c>
       <c r="E8">
-        <v>1.045609067671746</v>
+        <v>1.022346708910632</v>
       </c>
       <c r="F8">
-        <v>1.05512596767479</v>
+        <v>1.029573242567051</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039526701328732</v>
+        <v>1.049242856719244</v>
       </c>
       <c r="J8">
-        <v>1.042386268754705</v>
+        <v>1.030189137558281</v>
       </c>
       <c r="K8">
-        <v>1.043181631220193</v>
+        <v>1.047748078233577</v>
       </c>
       <c r="L8">
-        <v>1.048314001023999</v>
+        <v>1.0332322542505</v>
       </c>
       <c r="M8">
-        <v>1.057805088259098</v>
+        <v>1.040366988804312</v>
       </c>
       <c r="N8">
-        <v>1.043866576819712</v>
+        <v>1.03165212429796</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035279499406879</v>
+        <v>0.9985639686491263</v>
       </c>
       <c r="D9">
-        <v>1.039232933377744</v>
+        <v>1.03111164744457</v>
       </c>
       <c r="E9">
-        <v>1.043703986170031</v>
+        <v>1.013742950153704</v>
       </c>
       <c r="F9">
-        <v>1.052982588009006</v>
+        <v>1.019957533350888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039099637446509</v>
+        <v>1.046592386018449</v>
       </c>
       <c r="J9">
-        <v>1.041083324502816</v>
+        <v>1.024167538996591</v>
       </c>
       <c r="K9">
-        <v>1.042385000853009</v>
+        <v>1.043719349836381</v>
       </c>
       <c r="L9">
-        <v>1.046841635677187</v>
+        <v>1.026616924274115</v>
       </c>
       <c r="M9">
-        <v>1.056090743756493</v>
+        <v>1.032734904266928</v>
       </c>
       <c r="N9">
-        <v>1.042561782237536</v>
+        <v>1.025621974375625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033867932828966</v>
+        <v>0.9913974179387526</v>
       </c>
       <c r="D10">
-        <v>1.038414684229449</v>
+        <v>1.02699452092134</v>
       </c>
       <c r="E10">
-        <v>1.042438754081929</v>
+        <v>1.007774825090281</v>
       </c>
       <c r="F10">
-        <v>1.051559275235218</v>
+        <v>1.013286169761177</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038810049107511</v>
+        <v>1.044702598585289</v>
       </c>
       <c r="J10">
-        <v>1.040214569169955</v>
+        <v>1.01995655462326</v>
       </c>
       <c r="K10">
-        <v>1.041851677548218</v>
+        <v>1.040892906035046</v>
       </c>
       <c r="L10">
-        <v>1.045861504389048</v>
+        <v>1.022005107384637</v>
       </c>
       <c r="M10">
-        <v>1.054950188164211</v>
+        <v>1.02741961152243</v>
       </c>
       <c r="N10">
-        <v>1.041691793172456</v>
+        <v>1.021405009921476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033257468159535</v>
+        <v>0.9882110559638656</v>
       </c>
       <c r="D11">
-        <v>1.038060746854566</v>
+        <v>1.025171247966159</v>
       </c>
       <c r="E11">
-        <v>1.041892057267286</v>
+        <v>1.005130413131506</v>
       </c>
       <c r="F11">
-        <v>1.050944314571989</v>
+        <v>1.01032973786012</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038683505350477</v>
+        <v>1.043853461859719</v>
       </c>
       <c r="J11">
-        <v>1.039838371946892</v>
+        <v>1.01808262781859</v>
       </c>
       <c r="K11">
-        <v>1.041620227652564</v>
+        <v>1.039633586736041</v>
       </c>
       <c r="L11">
-        <v>1.045437454546074</v>
+        <v>1.019956221620537</v>
       </c>
       <c r="M11">
-        <v>1.054456887055004</v>
+        <v>1.025059444684997</v>
       </c>
       <c r="N11">
-        <v>1.041315061706185</v>
+        <v>1.019528421925802</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033030828667016</v>
+        <v>0.9870143288814091</v>
       </c>
       <c r="D12">
-        <v>1.037929336172619</v>
+        <v>1.024487677371389</v>
       </c>
       <c r="E12">
-        <v>1.041689165072195</v>
+        <v>1.004138659043276</v>
       </c>
       <c r="F12">
-        <v>1.050716094160791</v>
+        <v>1.00922089069096</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038636329238666</v>
+        <v>1.043533263876851</v>
       </c>
       <c r="J12">
-        <v>1.039698633527344</v>
+        <v>1.017378617949902</v>
       </c>
       <c r="K12">
-        <v>1.041534180363718</v>
+        <v>1.039160303370696</v>
       </c>
       <c r="L12">
-        <v>1.045279997847269</v>
+        <v>1.019186996103031</v>
       </c>
       <c r="M12">
-        <v>1.054273739584705</v>
+        <v>1.024173539795871</v>
       </c>
       <c r="N12">
-        <v>1.041175124842054</v>
+        <v>1.01882341228235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033079438418324</v>
+        <v>0.9872716381537994</v>
       </c>
       <c r="D13">
-        <v>1.03795752158214</v>
+        <v>1.024634595794942</v>
       </c>
       <c r="E13">
-        <v>1.041732678177808</v>
+        <v>1.004351831363002</v>
       </c>
       <c r="F13">
-        <v>1.050765038986063</v>
+        <v>1.009459235059919</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038646456453206</v>
+        <v>1.043602166847517</v>
       </c>
       <c r="J13">
-        <v>1.039728607967273</v>
+        <v>1.017529996191476</v>
       </c>
       <c r="K13">
-        <v>1.041552641240836</v>
+        <v>1.039262077055029</v>
       </c>
       <c r="L13">
-        <v>1.04531377036766</v>
+        <v>1.019352373949971</v>
       </c>
       <c r="M13">
-        <v>1.05431302140174</v>
+        <v>1.024363994431485</v>
       </c>
       <c r="N13">
-        <v>1.041205141849124</v>
+        <v>1.01897500549839</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033238731730759</v>
+        <v>0.9881124068381079</v>
       </c>
       <c r="D14">
-        <v>1.038049883224647</v>
+        <v>1.025114874269838</v>
       </c>
       <c r="E14">
-        <v>1.041875282549438</v>
+        <v>1.005048631031543</v>
       </c>
       <c r="F14">
-        <v>1.050925445644055</v>
+        <v>1.01023830158483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03867960926584</v>
+        <v>1.043827092865355</v>
       </c>
       <c r="J14">
-        <v>1.039826821160689</v>
+        <v>1.018024598464335</v>
       </c>
       <c r="K14">
-        <v>1.041613116510087</v>
+        <v>1.039594578652311</v>
       </c>
       <c r="L14">
-        <v>1.045424438011778</v>
+        <v>1.019892806283088</v>
       </c>
       <c r="M14">
-        <v>1.054441746255103</v>
+        <v>1.02498640645107</v>
       </c>
       <c r="N14">
-        <v>1.041303494516541</v>
+        <v>1.019470310163207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033336892773559</v>
+        <v>0.9886286661533602</v>
       </c>
       <c r="D15">
-        <v>1.038106797944435</v>
+        <v>1.02540994414303</v>
       </c>
       <c r="E15">
-        <v>1.041963169089334</v>
+        <v>1.005476678944978</v>
       </c>
       <c r="F15">
-        <v>1.05102430447421</v>
+        <v>1.010716876424095</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038700013019357</v>
+        <v>1.043965037532865</v>
       </c>
       <c r="J15">
-        <v>1.03988733331424</v>
+        <v>1.018328274740203</v>
       </c>
       <c r="K15">
-        <v>1.041650367220463</v>
+        <v>1.039798707041752</v>
       </c>
       <c r="L15">
-        <v>1.04549263122983</v>
+        <v>1.020224689180893</v>
       </c>
       <c r="M15">
-        <v>1.054521069391424</v>
+        <v>1.025368658193304</v>
       </c>
       <c r="N15">
-        <v>1.04136409260429</v>
+        <v>1.01977441769422</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033908463320102</v>
+        <v>0.9916070771484911</v>
       </c>
       <c r="D16">
-        <v>1.038438181838373</v>
+        <v>1.027114651732682</v>
       </c>
       <c r="E16">
-        <v>1.042475061055411</v>
+        <v>1.007949019484434</v>
       </c>
       <c r="F16">
-        <v>1.05160011658154</v>
+        <v>1.013480908042649</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038818423225254</v>
+        <v>1.044758289964509</v>
       </c>
       <c r="J16">
-        <v>1.040239535799697</v>
+        <v>1.020079826182913</v>
       </c>
       <c r="K16">
-        <v>1.041867027320624</v>
+        <v>1.040975720046406</v>
       </c>
       <c r="L16">
-        <v>1.045889654729222</v>
+        <v>1.022139959435758</v>
       </c>
       <c r="M16">
-        <v>1.054982938994507</v>
+        <v>1.027574977228312</v>
       </c>
       <c r="N16">
-        <v>1.041716795257675</v>
+        <v>1.021528456540884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034267196819336</v>
+        <v>0.9934526213673671</v>
       </c>
       <c r="D17">
-        <v>1.038646150537748</v>
+        <v>1.028172955923609</v>
       </c>
       <c r="E17">
-        <v>1.042796468199007</v>
+        <v>1.009483426354071</v>
       </c>
       <c r="F17">
-        <v>1.05196166901034</v>
+        <v>1.015196228120779</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038892391373295</v>
+        <v>1.045247510428474</v>
       </c>
       <c r="J17">
-        <v>1.040460458383601</v>
+        <v>1.021164751808684</v>
       </c>
       <c r="K17">
-        <v>1.042002794833926</v>
+        <v>1.041704407508343</v>
       </c>
       <c r="L17">
-        <v>1.04613879255431</v>
+        <v>1.02332719513358</v>
       </c>
       <c r="M17">
-        <v>1.055272810339957</v>
+        <v>1.028942957308156</v>
       </c>
       <c r="N17">
-        <v>1.041938031576988</v>
+        <v>1.022614922885487</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034476512574382</v>
+        <v>0.9945211162547833</v>
       </c>
       <c r="D18">
-        <v>1.038767490728736</v>
+        <v>1.028786352988567</v>
       </c>
       <c r="E18">
-        <v>1.042984051083064</v>
+        <v>1.010372646601236</v>
       </c>
       <c r="F18">
-        <v>1.05217268591544</v>
+        <v>1.016190251774733</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038935424730568</v>
+        <v>1.04552989931027</v>
       </c>
       <c r="J18">
-        <v>1.040589316747336</v>
+        <v>1.021792719189243</v>
       </c>
       <c r="K18">
-        <v>1.042081935724272</v>
+        <v>1.042126031553828</v>
       </c>
       <c r="L18">
-        <v>1.046284144457806</v>
+        <v>1.024014704857652</v>
       </c>
       <c r="M18">
-        <v>1.055441942007582</v>
+        <v>1.029735252254638</v>
       </c>
       <c r="N18">
-        <v>1.042067072934381</v>
+        <v>1.023243782051755</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034547896112874</v>
+        <v>0.9948841115292026</v>
       </c>
       <c r="D19">
-        <v>1.038808870574786</v>
+        <v>1.028994852031271</v>
       </c>
       <c r="E19">
-        <v>1.043048030871202</v>
+        <v>1.010674882005714</v>
       </c>
       <c r="F19">
-        <v>1.052244659143132</v>
+        <v>1.016528102215709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038950079143609</v>
+        <v>1.045625688272937</v>
       </c>
       <c r="J19">
-        <v>1.04063325374118</v>
+        <v>1.022006027412689</v>
       </c>
       <c r="K19">
-        <v>1.04210891220357</v>
+        <v>1.042269222150728</v>
       </c>
       <c r="L19">
-        <v>1.046333711435803</v>
+        <v>1.02424829340018</v>
       </c>
       <c r="M19">
-        <v>1.055499620758519</v>
+        <v>1.03000446287849</v>
       </c>
       <c r="N19">
-        <v>1.042111072323795</v>
+        <v>1.023457393197344</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034228700594938</v>
+        <v>0.9932554420366622</v>
       </c>
       <c r="D20">
-        <v>1.038623833772311</v>
+        <v>1.028059814327399</v>
       </c>
       <c r="E20">
-        <v>1.042761972706749</v>
+        <v>1.009319399421423</v>
       </c>
       <c r="F20">
-        <v>1.05192286445132</v>
+        <v>1.015012865872623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038884466768751</v>
+        <v>1.045195329500412</v>
       </c>
       <c r="J20">
-        <v>1.040436755684743</v>
+        <v>1.021048853861662</v>
       </c>
       <c r="K20">
-        <v>1.041988233427759</v>
+        <v>1.0416265799815</v>
       </c>
       <c r="L20">
-        <v>1.04611205889552</v>
+        <v>1.023200334211404</v>
       </c>
       <c r="M20">
-        <v>1.05524170422901</v>
+        <v>1.028796770789822</v>
       </c>
       <c r="N20">
-        <v>1.041914295217579</v>
+        <v>1.022498860350086</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03319182065702</v>
+        <v>0.9878651905951058</v>
       </c>
       <c r="D21">
-        <v>1.038022683423178</v>
+        <v>1.024973620824034</v>
       </c>
       <c r="E21">
-        <v>1.041833284263818</v>
+        <v>1.004843707041829</v>
       </c>
       <c r="F21">
-        <v>1.050878204254984</v>
+        <v>1.010009185597058</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038669851335025</v>
+        <v>1.043760991315621</v>
       </c>
       <c r="J21">
-        <v>1.039797899870478</v>
+        <v>1.01787917286174</v>
       </c>
       <c r="K21">
-        <v>1.041595310152221</v>
+        <v>1.039496819075871</v>
       </c>
       <c r="L21">
-        <v>1.045391847640581</v>
+        <v>1.019733891318964</v>
       </c>
       <c r="M21">
-        <v>1.054403837594843</v>
+        <v>1.024803380101087</v>
       </c>
       <c r="N21">
-        <v>1.04127453215478</v>
+        <v>1.019324678039577</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032540554766938</v>
+        <v>0.9843995603994338</v>
       </c>
       <c r="D22">
-        <v>1.037645049451531</v>
+        <v>1.022996481690848</v>
       </c>
       <c r="E22">
-        <v>1.041250396213603</v>
+        <v>1.001974437395972</v>
       </c>
       <c r="F22">
-        <v>1.050222562283568</v>
+        <v>1.006800999246133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038533918554399</v>
+        <v>1.042831363012199</v>
       </c>
       <c r="J22">
-        <v>1.039396214693293</v>
+        <v>1.015840078522642</v>
       </c>
       <c r="K22">
-        <v>1.041347821744816</v>
+        <v>1.03812573663137</v>
       </c>
       <c r="L22">
-        <v>1.044939336955539</v>
+        <v>1.017506881507963</v>
       </c>
       <c r="M22">
-        <v>1.053877538865288</v>
+        <v>1.022238920343811</v>
       </c>
       <c r="N22">
-        <v>1.040872276538569</v>
+        <v>1.017282687952629</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032885740035506</v>
+        <v>0.9862442499068089</v>
       </c>
       <c r="D23">
-        <v>1.037845208175487</v>
+        <v>1.024048164516538</v>
       </c>
       <c r="E23">
-        <v>1.041559299459742</v>
+        <v>1.003500887882952</v>
       </c>
       <c r="F23">
-        <v>1.050570018374571</v>
+        <v>1.008507797895078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038606073237308</v>
+        <v>1.043326866863183</v>
       </c>
       <c r="J23">
-        <v>1.039609156313977</v>
+        <v>1.016925544492773</v>
       </c>
       <c r="K23">
-        <v>1.041479061510695</v>
+        <v>1.038855674789333</v>
       </c>
       <c r="L23">
-        <v>1.045179191202771</v>
+        <v>1.018692097423413</v>
       </c>
       <c r="M23">
-        <v>1.054156491815581</v>
+        <v>1.023603625275839</v>
       </c>
       <c r="N23">
-        <v>1.041085520560779</v>
+        <v>1.018369695408943</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034246095157549</v>
+        <v>0.9933445635000538</v>
       </c>
       <c r="D24">
-        <v>1.038633917648343</v>
+        <v>1.028110950161158</v>
       </c>
       <c r="E24">
-        <v>1.042777559390406</v>
+        <v>1.009393533939962</v>
       </c>
       <c r="F24">
-        <v>1.051940398161287</v>
+        <v>1.015095739408802</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038888047899519</v>
+        <v>1.045218916967549</v>
       </c>
       <c r="J24">
-        <v>1.040447465920503</v>
+        <v>1.021101238121597</v>
       </c>
       <c r="K24">
-        <v>1.041994813255075</v>
+        <v>1.041661757406003</v>
       </c>
       <c r="L24">
-        <v>1.046124138580186</v>
+        <v>1.023257672578868</v>
       </c>
       <c r="M24">
-        <v>1.05525575957299</v>
+        <v>1.02886284353603</v>
       </c>
       <c r="N24">
-        <v>1.041925020663102</v>
+        <v>1.022551319001679</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035827554373592</v>
+        <v>1.001273072112578</v>
       </c>
       <c r="D25">
-        <v>1.039550559618257</v>
+        <v>1.032673566873854</v>
       </c>
       <c r="E25">
-        <v>1.044195652042526</v>
+        <v>1.016006549426103</v>
       </c>
       <c r="F25">
-        <v>1.053535721608852</v>
+        <v>1.022487555361167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039210906618937</v>
+        <v>1.047298694369207</v>
       </c>
       <c r="J25">
-        <v>1.041420193662137</v>
+        <v>1.025757668128709</v>
       </c>
       <c r="K25">
-        <v>1.042591348422058</v>
+        <v>1.044784990327005</v>
       </c>
       <c r="L25">
-        <v>1.047222027848594</v>
+        <v>1.028361363907021</v>
       </c>
       <c r="M25">
-        <v>1.056533536237217</v>
+        <v>1.034746529886781</v>
       </c>
       <c r="N25">
-        <v>1.042899129789703</v>
+        <v>1.027214361673501</v>
       </c>
     </row>
   </sheetData>
